--- a/Code/Results/Cases/Case_8_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.0426611212646</v>
+        <v>24.17341051654451</v>
       </c>
       <c r="C2">
-        <v>22.40450137304705</v>
+        <v>23.90156489992665</v>
       </c>
       <c r="D2">
-        <v>3.319013093474943</v>
+        <v>4.723766806590288</v>
       </c>
       <c r="E2">
-        <v>9.731516626475246</v>
+        <v>10.57483528010087</v>
       </c>
       <c r="F2">
-        <v>44.24126126458348</v>
+        <v>38.28966704167438</v>
       </c>
       <c r="G2">
-        <v>2.107480784117566</v>
+        <v>4.282289478292403</v>
       </c>
       <c r="H2">
-        <v>1.906694203050349</v>
+        <v>1.603222150284913</v>
       </c>
       <c r="I2">
-        <v>2.87777699885556</v>
+        <v>2.521241833821628</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.57454725261004</v>
+        <v>20.7090171900718</v>
       </c>
       <c r="L2">
-        <v>7.516180851286449</v>
+        <v>17.02021646366171</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.89287730196946</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.522704220229845</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47028880523688</v>
+        <v>22.56357150267774</v>
       </c>
       <c r="C3">
-        <v>20.89755692428591</v>
+        <v>22.24158587780132</v>
       </c>
       <c r="D3">
-        <v>3.165859517007665</v>
+        <v>4.519349436220406</v>
       </c>
       <c r="E3">
-        <v>9.182216200859985</v>
+        <v>10.04502144741362</v>
       </c>
       <c r="F3">
-        <v>42.22550103628603</v>
+        <v>36.72930294308256</v>
       </c>
       <c r="G3">
-        <v>2.115369205731772</v>
+        <v>5.19925754245821</v>
       </c>
       <c r="H3">
-        <v>2.283379614751747</v>
+        <v>1.906983210169709</v>
       </c>
       <c r="I3">
-        <v>3.175345296272785</v>
+        <v>2.73865748027238</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>24.77644098046794</v>
+        <v>20.30338815888721</v>
       </c>
       <c r="L3">
-        <v>7.199232094615518</v>
+        <v>16.8812671772644</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.40279665006854</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.253126516188527</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45397277291634</v>
+        <v>21.51521966147274</v>
       </c>
       <c r="C4">
-        <v>19.93449725342808</v>
+        <v>21.17021464346513</v>
       </c>
       <c r="D4">
-        <v>3.070991685823958</v>
+        <v>4.392476294926468</v>
       </c>
       <c r="E4">
-        <v>8.831277211068667</v>
+        <v>9.707175586074808</v>
       </c>
       <c r="F4">
-        <v>40.94390340765784</v>
+        <v>35.7338180869217</v>
       </c>
       <c r="G4">
-        <v>2.120341542520678</v>
+        <v>5.778684047990795</v>
       </c>
       <c r="H4">
-        <v>2.52145265950496</v>
+        <v>2.099574046885115</v>
       </c>
       <c r="I4">
-        <v>3.363630690398887</v>
+        <v>2.877045215272885</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>24.27290573698601</v>
+        <v>20.04552781909415</v>
       </c>
       <c r="L4">
-        <v>6.997498730103676</v>
+        <v>16.78495849344068</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.10964633060535</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.08178887057976</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.02658800093921</v>
+        <v>21.07266691648989</v>
       </c>
       <c r="C5">
-        <v>19.54083191599898</v>
+        <v>20.73268705713186</v>
       </c>
       <c r="D5">
-        <v>3.038808605340531</v>
+        <v>4.346187184424152</v>
       </c>
       <c r="E5">
-        <v>8.687960115310078</v>
+        <v>9.568957463150324</v>
       </c>
       <c r="F5">
-        <v>40.37517724074532</v>
+        <v>35.28996183619578</v>
       </c>
       <c r="G5">
-        <v>2.122415071425401</v>
+        <v>6.020507970138</v>
       </c>
       <c r="H5">
-        <v>2.620819036841971</v>
+        <v>2.180026028432994</v>
       </c>
       <c r="I5">
-        <v>3.444760010376673</v>
+        <v>2.938187605734216</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>24.03678519909933</v>
+        <v>19.91701688966221</v>
       </c>
       <c r="L5">
-        <v>6.912464188518619</v>
+        <v>16.72611515506826</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.97710455814506</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.00972546186698</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.95490077381698</v>
+        <v>20.99802476729008</v>
       </c>
       <c r="C6">
-        <v>19.48658865090545</v>
+        <v>20.66882343434339</v>
       </c>
       <c r="D6">
-        <v>3.041636406099864</v>
+        <v>4.345451349389621</v>
       </c>
       <c r="E6">
-        <v>8.667770442399886</v>
+        <v>9.548921572624161</v>
       </c>
       <c r="F6">
-        <v>40.23621565690512</v>
+        <v>35.18014099111878</v>
       </c>
       <c r="G6">
-        <v>2.122777985997368</v>
+        <v>6.062704511457411</v>
       </c>
       <c r="H6">
-        <v>2.638139668138213</v>
+        <v>2.193974457219303</v>
       </c>
       <c r="I6">
-        <v>3.462106484670206</v>
+        <v>2.95293348776753</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>23.96352636177602</v>
+        <v>19.8695926736834</v>
       </c>
       <c r="L6">
-        <v>6.896942709276116</v>
+        <v>16.69565941784221</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.9364372203148</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.996678667984043</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44843662646794</v>
+        <v>21.50753363764939</v>
       </c>
       <c r="C7">
-        <v>19.96057739972694</v>
+        <v>21.12971195423709</v>
       </c>
       <c r="D7">
-        <v>3.092498257782483</v>
+        <v>4.444721565454198</v>
       </c>
       <c r="E7">
-        <v>8.839563868807158</v>
+        <v>9.728182759395889</v>
       </c>
       <c r="F7">
-        <v>40.8182211570251</v>
+        <v>35.45648996448286</v>
       </c>
       <c r="G7">
-        <v>2.120414067440254</v>
+        <v>5.844786645252475</v>
       </c>
       <c r="H7">
-        <v>2.524717679983531</v>
+        <v>2.105341826782682</v>
       </c>
       <c r="I7">
-        <v>3.374845119796841</v>
+        <v>2.892942535814399</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>24.17814279432007</v>
+        <v>19.86845159592568</v>
       </c>
       <c r="L7">
-        <v>6.992868490015024</v>
+        <v>16.64654717302706</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.97950688363094</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.072785262337053</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.5093313600465</v>
+        <v>23.62614601874359</v>
       </c>
       <c r="C8">
-        <v>21.92616094071828</v>
+        <v>23.18757298451125</v>
       </c>
       <c r="D8">
-        <v>3.293727389908906</v>
+        <v>4.78608139340008</v>
       </c>
       <c r="E8">
-        <v>9.557565912250503</v>
+        <v>10.45086747054783</v>
       </c>
       <c r="F8">
-        <v>43.40767553941519</v>
+        <v>37.08737231071824</v>
       </c>
       <c r="G8">
-        <v>2.110231929893811</v>
+        <v>4.912771518524334</v>
       </c>
       <c r="H8">
-        <v>2.037697749520776</v>
+        <v>1.719173075157234</v>
       </c>
       <c r="I8">
-        <v>2.992640561987868</v>
+        <v>2.620818713445918</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>25.18532882680455</v>
+        <v>20.14487387449531</v>
       </c>
       <c r="L8">
-        <v>7.403981427979386</v>
+        <v>16.64936096671279</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.40039340863685</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.410640299884634</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.24224641939712</v>
+        <v>27.31421783597109</v>
       </c>
       <c r="C9">
-        <v>25.46871313159851</v>
+        <v>26.96913071707426</v>
       </c>
       <c r="D9">
-        <v>3.645551418990478</v>
+        <v>5.283600785716202</v>
       </c>
       <c r="E9">
-        <v>10.84072016050325</v>
+        <v>11.69834028118756</v>
       </c>
       <c r="F9">
-        <v>48.31648497742314</v>
+        <v>40.7827097125658</v>
       </c>
       <c r="G9">
-        <v>2.091147059166377</v>
+        <v>2.9450843704039</v>
       </c>
       <c r="H9">
-        <v>1.980432132540815</v>
+        <v>2.11321811291113</v>
       </c>
       <c r="I9">
-        <v>2.681237604194008</v>
+        <v>2.857929141099126</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>27.20328409912046</v>
+        <v>21.12041507415728</v>
       </c>
       <c r="L9">
-        <v>8.15879519123737</v>
+        <v>16.95953454896744</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.65068121802094</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.049801143689093</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.71879847769263</v>
+        <v>29.73086961020177</v>
       </c>
       <c r="C10">
-        <v>27.77710288238851</v>
+        <v>29.11283470398227</v>
       </c>
       <c r="D10">
-        <v>3.898058089930548</v>
+        <v>5.778450114067349</v>
       </c>
       <c r="E10">
-        <v>11.53108454633585</v>
+        <v>12.42106516316302</v>
       </c>
       <c r="F10">
-        <v>51.10328215732015</v>
+        <v>41.9991385383536</v>
       </c>
       <c r="G10">
-        <v>2.07798594985103</v>
+        <v>3.718017110826207</v>
       </c>
       <c r="H10">
-        <v>2.580757995568801</v>
+        <v>2.571434032863479</v>
       </c>
       <c r="I10">
-        <v>3.164925963553031</v>
+        <v>3.195162200957598</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>28.24708230208136</v>
+        <v>21.00707355953131</v>
       </c>
       <c r="L10">
-        <v>8.551650635709603</v>
+        <v>16.56905875703752</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.96286543943458</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.342704004842359</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.74012139703454</v>
+        <v>30.72856327480813</v>
       </c>
       <c r="C11">
-        <v>28.04099693385704</v>
+        <v>28.64149957133655</v>
       </c>
       <c r="D11">
-        <v>3.944716572467323</v>
+        <v>5.990461597603967</v>
       </c>
       <c r="E11">
-        <v>10.25176159764056</v>
+        <v>11.16848718527495</v>
       </c>
       <c r="F11">
-        <v>47.60693046028398</v>
+        <v>37.36434890235373</v>
       </c>
       <c r="G11">
-        <v>2.075031515251122</v>
+        <v>7.738968836268106</v>
       </c>
       <c r="H11">
-        <v>3.332715076521639</v>
+        <v>3.286188158422635</v>
       </c>
       <c r="I11">
-        <v>3.282114472475486</v>
+        <v>3.260522302270597</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.81958901163301</v>
+        <v>18.10882154630791</v>
       </c>
       <c r="L11">
-        <v>7.693514728851837</v>
+        <v>14.38405050686092</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.82770597455062</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.452911776392428</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.10109152997656</v>
+        <v>31.08657046287493</v>
       </c>
       <c r="C12">
-        <v>27.75061614212176</v>
+        <v>27.93247541078005</v>
       </c>
       <c r="D12">
-        <v>3.903460989648361</v>
+        <v>5.92909789086479</v>
       </c>
       <c r="E12">
-        <v>9.090684101586429</v>
+        <v>9.958478165668872</v>
       </c>
       <c r="F12">
-        <v>44.1932323759547</v>
+        <v>33.81810759248861</v>
       </c>
       <c r="G12">
-        <v>2.0750140023372</v>
+        <v>9.663778885002253</v>
       </c>
       <c r="H12">
-        <v>4.453383826760643</v>
+        <v>4.417133613668925</v>
       </c>
       <c r="I12">
-        <v>3.284294039980604</v>
+        <v>3.255718512880534</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.68033347459258</v>
+        <v>16.177767820725</v>
       </c>
       <c r="L12">
-        <v>6.968879791997841</v>
+        <v>13.01527836886859</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.30666039834056</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.74468709080846</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.98795462730233</v>
+        <v>30.98705515965343</v>
       </c>
       <c r="C13">
-        <v>27.04251017102759</v>
+        <v>27.11834921903623</v>
       </c>
       <c r="D13">
-        <v>3.814963357017968</v>
+        <v>5.609874395248495</v>
       </c>
       <c r="E13">
-        <v>7.965943771614957</v>
+        <v>8.700246702397571</v>
       </c>
       <c r="F13">
-        <v>40.40451667506652</v>
+        <v>31.03771556203925</v>
       </c>
       <c r="G13">
-        <v>2.077316967101432</v>
+        <v>9.268258807373986</v>
       </c>
       <c r="H13">
-        <v>5.674113852773545</v>
+        <v>5.661373287203686</v>
       </c>
       <c r="I13">
-        <v>3.200707495015021</v>
+        <v>3.203260636406446</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.48468325917873</v>
+        <v>14.93000966299904</v>
       </c>
       <c r="L13">
-        <v>6.313122129762887</v>
+        <v>12.1867591146399</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.23930780624528</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.151668286816029</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.69382409273721</v>
+        <v>30.70887336622944</v>
       </c>
       <c r="C14">
-        <v>26.35558493489778</v>
+        <v>26.48951953153994</v>
       </c>
       <c r="D14">
-        <v>3.733944842821402</v>
+        <v>5.281485658348349</v>
       </c>
       <c r="E14">
-        <v>7.230665188234618</v>
+        <v>7.840836238048925</v>
       </c>
       <c r="F14">
-        <v>37.52247943922167</v>
+        <v>29.36678846689149</v>
       </c>
       <c r="G14">
-        <v>2.079959201937655</v>
+        <v>7.982759087352623</v>
       </c>
       <c r="H14">
-        <v>6.568371513125618</v>
+        <v>6.571510330907924</v>
       </c>
       <c r="I14">
-        <v>3.105271711437981</v>
+        <v>3.145697277787483</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.90518726246829</v>
+        <v>14.31820130373569</v>
       </c>
       <c r="L14">
-        <v>5.915838370843134</v>
+        <v>11.80392736921129</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.669521980848863</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.816123278395644</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.51938980919823</v>
+        <v>30.54150657607628</v>
       </c>
       <c r="C15">
-        <v>26.10574597926717</v>
+        <v>26.31018132634783</v>
       </c>
       <c r="D15">
-        <v>3.709520332584261</v>
+        <v>5.161395910376757</v>
       </c>
       <c r="E15">
-        <v>7.050931603419944</v>
+        <v>7.624653063887433</v>
       </c>
       <c r="F15">
-        <v>36.70054646609086</v>
+        <v>29.05851018926545</v>
       </c>
       <c r="G15">
-        <v>2.081138937636315</v>
+        <v>7.243890688904473</v>
       </c>
       <c r="H15">
-        <v>6.769584110061808</v>
+        <v>6.778291519419518</v>
       </c>
       <c r="I15">
-        <v>3.064078520278753</v>
+        <v>3.121975264378239</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.48068244227478</v>
+        <v>14.25603527645893</v>
       </c>
       <c r="L15">
-        <v>5.823081624645527</v>
+        <v>11.77471568360571</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.589989480696136</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.745022597849634</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.52840156560196</v>
+        <v>29.58014182480553</v>
       </c>
       <c r="C16">
-        <v>25.2627396469768</v>
+        <v>25.95134469335206</v>
       </c>
       <c r="D16">
-        <v>3.622295482264633</v>
+        <v>4.78412361441787</v>
       </c>
       <c r="E16">
-        <v>6.910569732601278</v>
+        <v>7.448244731406763</v>
       </c>
       <c r="F16">
-        <v>36.01860424123821</v>
+        <v>30.12983027960582</v>
       </c>
       <c r="G16">
-        <v>2.086282430580472</v>
+        <v>3.897409413959066</v>
       </c>
       <c r="H16">
-        <v>6.46756874042934</v>
+        <v>6.49852132827032</v>
       </c>
       <c r="I16">
-        <v>2.878117413913732</v>
+        <v>3.009415364830267</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.36784741266339</v>
+        <v>15.14209943580856</v>
       </c>
       <c r="L16">
-        <v>5.759197085510507</v>
+        <v>12.43896452761253</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.20235769278342</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.7393649499505</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.91426742745125</v>
+        <v>28.97961981125228</v>
       </c>
       <c r="C17">
-        <v>24.98874228732403</v>
+        <v>25.95188875220973</v>
       </c>
       <c r="D17">
-        <v>3.601867983525013</v>
+        <v>4.706344318764765</v>
       </c>
       <c r="E17">
-        <v>7.188277259500567</v>
+        <v>7.757148021505405</v>
       </c>
       <c r="F17">
-        <v>37.07477151113589</v>
+        <v>31.67831360453687</v>
       </c>
       <c r="G17">
-        <v>2.088849600586026</v>
+        <v>2.788196957467446</v>
       </c>
       <c r="H17">
-        <v>5.703210776081375</v>
+        <v>5.747670555487814</v>
       </c>
       <c r="I17">
-        <v>2.785656689187874</v>
+        <v>2.951601565267373</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.12257342369832</v>
+        <v>16.07821061166765</v>
       </c>
       <c r="L17">
-        <v>5.908093330251596</v>
+        <v>13.13522128976425</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.89314045549426</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.901017045727398</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.56964761661788</v>
+        <v>28.63831088147768</v>
       </c>
       <c r="C18">
-        <v>25.16383691326679</v>
+        <v>26.35219022661954</v>
       </c>
       <c r="D18">
-        <v>3.622273074375949</v>
+        <v>4.802258789683725</v>
       </c>
       <c r="E18">
-        <v>7.9562347964353</v>
+        <v>8.587608136585205</v>
       </c>
       <c r="F18">
-        <v>39.83947363452464</v>
+        <v>34.19059103985225</v>
       </c>
       <c r="G18">
-        <v>2.089339068682343</v>
+        <v>2.438810555807047</v>
       </c>
       <c r="H18">
-        <v>4.489907463071658</v>
+        <v>4.548559848193132</v>
       </c>
       <c r="I18">
-        <v>2.76314677163656</v>
+        <v>2.935943206809898</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.80244325270769</v>
+        <v>17.40965967345217</v>
       </c>
       <c r="L18">
-        <v>6.341191449902507</v>
+        <v>14.10825921796885</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.92528164111742</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.314560973717898</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.47330193218129</v>
+        <v>28.53704351628228</v>
       </c>
       <c r="C19">
-        <v>25.72921744208582</v>
+        <v>27.1171297335868</v>
       </c>
       <c r="D19">
-        <v>3.702165056971608</v>
+        <v>5.036491439412467</v>
       </c>
       <c r="E19">
-        <v>9.16882201236989</v>
+        <v>9.872822994220869</v>
       </c>
       <c r="F19">
-        <v>43.57428387820772</v>
+        <v>37.25775928826921</v>
       </c>
       <c r="G19">
-        <v>2.088012908702523</v>
+        <v>2.219313291229223</v>
       </c>
       <c r="H19">
-        <v>3.168064340012906</v>
+        <v>3.244816629204666</v>
       </c>
       <c r="I19">
-        <v>2.812006121114295</v>
+        <v>2.970977490269759</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.99514077456477</v>
+        <v>18.95831708011992</v>
       </c>
       <c r="L19">
-        <v>7.058493696858668</v>
+        <v>15.23194221341175</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.14649142323286</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.991480292818743</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.0839319930145</v>
+        <v>29.1171991589972</v>
       </c>
       <c r="C20">
-        <v>27.25310277203073</v>
+        <v>28.7854772819984</v>
       </c>
       <c r="D20">
-        <v>3.887382577987232</v>
+        <v>5.593162176835068</v>
       </c>
       <c r="E20">
-        <v>11.36899090205281</v>
+        <v>12.20392776323876</v>
       </c>
       <c r="F20">
-        <v>50.05624402998967</v>
+        <v>41.94404217135138</v>
       </c>
       <c r="G20">
-        <v>2.081553449887811</v>
+        <v>2.328112059493404</v>
       </c>
       <c r="H20">
-        <v>2.417127207164946</v>
+        <v>2.457560585421326</v>
       </c>
       <c r="I20">
-        <v>3.044940313785572</v>
+        <v>3.127411862449677</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>27.7126894769392</v>
+        <v>21.16741956230832</v>
       </c>
       <c r="L20">
-        <v>8.435195488347764</v>
+        <v>16.76543607639227</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.98228970647091</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.271001360040909</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.9088963572733</v>
+        <v>30.86954306128094</v>
       </c>
       <c r="C21">
-        <v>29.07849370999662</v>
+        <v>29.67102079715836</v>
       </c>
       <c r="D21">
-        <v>4.082981637989042</v>
+        <v>6.561187397816743</v>
       </c>
       <c r="E21">
-        <v>12.17073494460058</v>
+        <v>13.26910797158951</v>
       </c>
       <c r="F21">
-        <v>53.02427665903792</v>
+        <v>40.88073966803478</v>
       </c>
       <c r="G21">
-        <v>2.07100472187953</v>
+        <v>9.389177014534337</v>
       </c>
       <c r="H21">
-        <v>2.909095093753564</v>
+        <v>2.782128543075382</v>
       </c>
       <c r="I21">
-        <v>3.429527276362903</v>
+        <v>3.34779654513062</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>29.05250521223686</v>
+        <v>19.76929307789711</v>
       </c>
       <c r="L21">
-        <v>8.922360777606389</v>
+        <v>15.54080171355137</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.18484709884365</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.59081733444263</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.0526060585825</v>
+        <v>31.96380992572824</v>
       </c>
       <c r="C22">
-        <v>30.16031413779409</v>
+        <v>30.09591337695425</v>
       </c>
       <c r="D22">
-        <v>4.18284302954188</v>
+        <v>7.187428198311653</v>
       </c>
       <c r="E22">
-        <v>12.57496862475569</v>
+        <v>13.8557513362142</v>
       </c>
       <c r="F22">
-        <v>54.76103535311375</v>
+        <v>39.90661952523045</v>
       </c>
       <c r="G22">
-        <v>2.064294113502881</v>
+        <v>14.49010138790701</v>
       </c>
       <c r="H22">
-        <v>3.217012121541857</v>
+        <v>2.983069571112623</v>
       </c>
       <c r="I22">
-        <v>3.671596040115303</v>
+        <v>3.483341736961883</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>29.8451990817857</v>
+        <v>18.72699770247865</v>
       </c>
       <c r="L22">
-        <v>9.173802247056303</v>
+        <v>14.6748681587714</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.5522851602681</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.733464064953418</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.44746794289494</v>
+        <v>31.3873222692343</v>
       </c>
       <c r="C23">
-        <v>29.56074935153246</v>
+        <v>29.96521084204108</v>
       </c>
       <c r="D23">
-        <v>4.10936511894104</v>
+        <v>6.758234562041519</v>
       </c>
       <c r="E23">
-        <v>12.35120090880689</v>
+        <v>13.50433361437962</v>
       </c>
       <c r="F23">
-        <v>53.94755866175017</v>
+        <v>40.87835436294532</v>
       </c>
       <c r="G23">
-        <v>2.067824651374006</v>
+        <v>10.96165446623311</v>
       </c>
       <c r="H23">
-        <v>3.054993618729848</v>
+        <v>2.883057435162621</v>
       </c>
       <c r="I23">
-        <v>3.540442057251123</v>
+        <v>3.412101924228057</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>29.51440475092896</v>
+        <v>19.57835782018853</v>
       </c>
       <c r="L23">
-        <v>9.043563639237446</v>
+        <v>15.34026708567127</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.12793516824392</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.671007908469736</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.05899693470076</v>
+        <v>29.09154440839337</v>
       </c>
       <c r="C24">
-        <v>27.25342310699195</v>
+        <v>28.81945692345819</v>
       </c>
       <c r="D24">
-        <v>3.860694088823465</v>
+        <v>5.582790640562204</v>
       </c>
       <c r="E24">
-        <v>11.49517552546107</v>
+        <v>12.33782280007903</v>
       </c>
       <c r="F24">
-        <v>50.61052176880568</v>
+        <v>42.41741903833585</v>
       </c>
       <c r="G24">
-        <v>2.081376011555313</v>
+        <v>2.260311968661879</v>
       </c>
       <c r="H24">
-        <v>2.431700475315786</v>
+        <v>2.469857433981808</v>
       </c>
       <c r="I24">
-        <v>3.043801039885596</v>
+        <v>3.122654227162423</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>28.09371326695885</v>
+        <v>21.46307578465893</v>
       </c>
       <c r="L24">
-        <v>8.532673686497011</v>
+        <v>16.98357821322609</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.20966701068894</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.364421328793577</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.27470364979659</v>
+        <v>26.36697096704154</v>
       </c>
       <c r="C25">
-        <v>24.59373942906438</v>
+        <v>26.10227319202842</v>
       </c>
       <c r="D25">
-        <v>3.585721097087481</v>
+        <v>5.137315002788608</v>
       </c>
       <c r="E25">
-        <v>10.52085247479797</v>
+        <v>11.36702081258924</v>
       </c>
       <c r="F25">
-        <v>46.84205091666061</v>
+        <v>39.88739818903417</v>
       </c>
       <c r="G25">
-        <v>2.096291679665745</v>
+        <v>3.21529984336555</v>
       </c>
       <c r="H25">
-        <v>1.742570635676585</v>
+        <v>1.92869387742333</v>
       </c>
       <c r="I25">
-        <v>2.501199495004736</v>
+        <v>2.733997050029494</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>26.51869934342407</v>
+        <v>20.8861263389349</v>
       </c>
       <c r="L25">
-        <v>7.955123377153771</v>
+        <v>16.90150519211195</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.32564775512566</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.88468054846754</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
